--- a/Documentation/Planning Lancement.xlsx
+++ b/Documentation/Planning Lancement.xlsx
@@ -205,12 +205,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -262,17 +268,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,7 +286,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2074,8 +2090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2102,43 +2118,43 @@
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:5">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="30">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B7" s="4">
+      <c r="B7" s="10">
         <v>41780</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="11" spans="2:5">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="45">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B14" s="4">
+      <c r="B14" s="10">
         <v>41784</v>
       </c>
     </row>
@@ -2149,17 +2165,17 @@
       </c>
     </row>
     <row r="19" spans="2:2" ht="30">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>41792</v>
       </c>
     </row>
@@ -2170,17 +2186,17 @@
       </c>
     </row>
     <row r="26" spans="2:2" ht="30">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>41806</v>
       </c>
     </row>
@@ -2191,15 +2207,15 @@
       </c>
     </row>
     <row r="33" spans="2:2" ht="60">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>41840</v>
       </c>
     </row>
@@ -2210,15 +2226,15 @@
       </c>
     </row>
     <row r="40" spans="2:2" ht="45">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>41882</v>
       </c>
     </row>
@@ -2229,17 +2245,17 @@
       </c>
     </row>
     <row r="47" spans="2:2" ht="45">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>41902</v>
       </c>
     </row>
@@ -2253,22 +2269,22 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="30" customHeight="1">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="B55" s="2"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>41913</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <v>41917</v>
       </c>
     </row>
@@ -2279,15 +2295,15 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="30">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="3"/>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>41922</v>
       </c>
     </row>
@@ -2298,17 +2314,17 @@
       </c>
     </row>
     <row r="68" spans="2:5">
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="69" spans="2:5">
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="15.75" thickBot="1">
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>41973</v>
       </c>
     </row>
@@ -2322,26 +2338,26 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="60">
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>42040</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="3">
         <v>41973</v>
       </c>
     </row>
@@ -2352,17 +2368,17 @@
       </c>
     </row>
     <row r="82" spans="5:5">
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="83" spans="5:5">
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="84" spans="5:5" ht="15.75" thickBot="1">
-      <c r="E84" s="4">
+      <c r="E84" s="3">
         <v>42004</v>
       </c>
     </row>
@@ -2373,17 +2389,17 @@
       </c>
     </row>
     <row r="89" spans="5:5">
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="90" spans="5:5">
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="91" spans="5:5" ht="15.75" thickBot="1">
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <v>42034</v>
       </c>
     </row>
@@ -2394,15 +2410,15 @@
       </c>
     </row>
     <row r="96" spans="5:5">
-      <c r="E96" s="7"/>
+      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="98" spans="5:5" ht="15.75" thickBot="1">
-      <c r="E98" s="4">
+      <c r="E98" s="3">
         <v>42040</v>
       </c>
     </row>

--- a/Documentation/Planning Lancement.xlsx
+++ b/Documentation/Planning Lancement.xlsx
@@ -41,10 +41,6 @@
     <t>Définition cibles</t>
   </si>
   <si>
-    <t>Evolution nombre médecins
-Evolution nombre patients</t>
-  </si>
-  <si>
     <t>EvolutionPrevisionnelle.xlsx</t>
   </si>
   <si>
@@ -157,13 +153,31 @@
   </si>
   <si>
     <t>Convaincre N médecins d'utiliser le site</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Evolution nombre médecins
+Evolution nombre patients
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A revoir plus tard</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +218,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +237,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,12 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -298,6 +320,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2090,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2101,98 +2139,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="31.5">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="2:5" ht="18.75">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:5">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="30">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="9" t="s">
-        <v>10</v>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>41780</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="11" spans="2:5">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="45">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="9" t="s">
-        <v>9</v>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>41784</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="18" spans="2:2">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="30">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:2" ht="45">
+      <c r="B19" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="21" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B21" s="3">
+      <c r="B21" s="15">
         <v>41792</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="30">
       <c r="B26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15.75" thickBot="1">
@@ -2203,12 +2241,12 @@
     <row r="31" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="60">
       <c r="B33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:2">
@@ -2222,12 +2260,12 @@
     <row r="38" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="45">
       <c r="B40" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="2:2">
@@ -2241,17 +2279,17 @@
     <row r="45" spans="2:2" ht="15.75" thickBot="1"/>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="45">
       <c r="B47" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="15.75" thickBot="1">
@@ -2262,18 +2300,18 @@
     <row r="52" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="53" spans="2:5">
       <c r="B53" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="30" customHeight="1">
       <c r="B54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -2291,12 +2329,12 @@
     <row r="59" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="60" spans="2:5">
       <c r="B60" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="30">
       <c r="B61" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="2:5">
@@ -2310,17 +2348,17 @@
     <row r="66" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="67" spans="2:5">
       <c r="E67" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="E68" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="E69" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="15.75" thickBot="1">
@@ -2331,26 +2369,26 @@
     <row r="73" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="74" spans="2:5">
       <c r="B74" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="60">
       <c r="B75" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="15.75" thickBot="1">
@@ -2364,17 +2402,17 @@
     <row r="80" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="81" spans="5:5">
       <c r="E81" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="5:5">
       <c r="E82" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="5:5">
       <c r="E83" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="5:5" ht="15.75" thickBot="1">
@@ -2385,17 +2423,17 @@
     <row r="87" spans="5:5" ht="15.75" thickBot="1"/>
     <row r="88" spans="5:5">
       <c r="E88" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="5:5">
       <c r="E89" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="5:5">
       <c r="E90" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="5:5" ht="15.75" thickBot="1">
@@ -2406,7 +2444,7 @@
     <row r="94" spans="5:5" ht="15.75" thickBot="1"/>
     <row r="95" spans="5:5">
       <c r="E95" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="5:5">
@@ -2414,7 +2452,7 @@
     </row>
     <row r="97" spans="5:5">
       <c r="E97" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="5:5" ht="15.75" thickBot="1">
@@ -2428,7 +2466,8 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
